--- a/tabular/eve/circoviridae/ecv-circo-refseqs-side-data.xlsx
+++ b/tabular/eve/circoviridae/ecv-circo-refseqs-side-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/circoviridae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C31AEA-AF08-1743-8314-D2A8B52E1F88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139CCFAA-B542-1246-9E15-FBCEA39714CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="2720" windowWidth="29640" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="2700" windowWidth="29640" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="124">
   <si>
     <t>Circovirus</t>
   </si>
@@ -389,13 +389,25 @@
   </si>
   <si>
     <t>fish</t>
+  </si>
+  <si>
+    <t>intact orf(s)?</t>
+  </si>
+  <si>
+    <t>expressed?</t>
+  </si>
+  <si>
+    <t>nearest_upstream_orf</t>
+  </si>
+  <si>
+    <t>nearest_downstream_orf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,8 +454,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +530,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -940,7 +966,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -992,6 +1018,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1750,77 +1780,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.83203125" style="2" customWidth="1"/>
     <col min="2" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35" style="2" customWidth="1"/>
-    <col min="9" max="9" width="85.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="6" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="6"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="26.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35" style="2" customWidth="1"/>
+    <col min="12" max="12" width="85.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="6"/>
+    <col min="19" max="19" width="15" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>103</v>
       </c>
@@ -1828,44 +1874,48 @@
         <v>150</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1</v>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>102</v>
       </c>
@@ -1873,44 +1923,48 @@
         <v>151</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1</v>
+      <c r="M3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1</v>
+      </c>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1918,44 +1972,48 @@
         <v>1</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
+      <c r="M4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -1963,44 +2021,48 @@
         <v>2</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>69</v>
       </c>
@@ -2008,44 +2070,48 @@
         <v>4</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="J6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
+      <c r="M6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>70</v>
       </c>
@@ -2053,44 +2119,48 @@
         <v>5</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="J7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="16"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
@@ -2098,44 +2168,48 @@
         <v>7</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>73</v>
       </c>
@@ -2143,44 +2217,48 @@
         <v>8</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>67</v>
       </c>
@@ -2188,44 +2266,48 @@
         <v>51</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="J10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="17"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>68</v>
       </c>
@@ -2233,44 +2315,48 @@
         <v>52</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="J11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>104</v>
       </c>
@@ -2278,44 +2364,48 @@
         <v>54</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="J12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="L12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5">
-        <v>1</v>
+      <c r="M12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="17"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>85</v>
       </c>
@@ -2323,44 +2413,48 @@
         <v>56</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="K13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="L13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="17"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>75</v>
       </c>
@@ -2368,44 +2462,48 @@
         <v>57</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="J14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="L14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1</v>
+      <c r="M14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>76</v>
       </c>
@@ -2413,44 +2511,48 @@
         <v>58</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="H15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="J15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="K15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="L15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
+      <c r="M15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="17"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>77</v>
       </c>
@@ -2458,44 +2560,48 @@
         <v>59</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="H16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="J16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="L16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5">
-        <v>1</v>
+      <c r="M16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="17"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>92</v>
       </c>
@@ -2503,44 +2609,48 @@
         <v>62</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="J17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="K17" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="L17" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
+      <c r="M17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="17"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>105</v>
       </c>
@@ -2548,44 +2658,48 @@
         <v>64</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="H18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="J18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="K18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="L18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="N18" s="5">
-        <v>1</v>
+      <c r="M18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="17"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>72</v>
       </c>
@@ -2593,44 +2707,48 @@
         <v>53</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="H19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="K19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="L19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5">
-        <v>1</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1</v>
+      <c r="M19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="17"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>86</v>
       </c>
@@ -2638,44 +2756,48 @@
         <v>55</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="H20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="K20" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="L20" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5">
-        <v>1</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1</v>
+      <c r="M20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1</v>
+      </c>
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>78</v>
       </c>
@@ -2683,44 +2805,48 @@
         <v>60</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="L21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-      <c r="N21" s="5">
-        <v>1</v>
+      <c r="M21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1</v>
+      </c>
+      <c r="S21" s="17"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>87</v>
       </c>
@@ -2728,44 +2854,48 @@
         <v>61</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="H22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="K22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="L22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1</v>
+      <c r="M22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1</v>
+      </c>
+      <c r="S22" s="17"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>93</v>
       </c>
@@ -2773,44 +2903,48 @@
         <v>63</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="I23" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="K23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="L23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5">
-        <v>1</v>
-      </c>
-      <c r="N23" s="5">
-        <v>1</v>
+      <c r="M23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>1</v>
+      </c>
+      <c r="R23" s="5">
+        <v>1</v>
+      </c>
+      <c r="S23" s="17"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -2818,44 +2952,48 @@
         <v>65</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="L24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5">
-        <v>1</v>
-      </c>
-      <c r="N24" s="5">
-        <v>1</v>
+      <c r="M24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>1</v>
+      </c>
+      <c r="R24" s="5">
+        <v>1</v>
+      </c>
+      <c r="S24" s="17"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>100</v>
       </c>
@@ -2863,91 +3001,99 @@
         <v>66</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="L25" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5">
-        <v>1</v>
-      </c>
-      <c r="N25" s="5">
-        <v>1</v>
+      <c r="M25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>1</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+      <c r="S25" s="17"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="21">
         <v>200</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5">
+        <v>1</v>
+      </c>
+      <c r="S26" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5">
-        <v>1</v>
-      </c>
-      <c r="N26" s="5">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
@@ -2955,44 +3101,48 @@
         <v>240</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="J27" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="5">
-        <v>1</v>
-      </c>
-      <c r="N27" s="5">
-        <v>1</v>
+      <c r="M27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>1</v>
+      </c>
+      <c r="R27" s="5">
+        <v>1</v>
+      </c>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>90</v>
       </c>
@@ -3000,44 +3150,48 @@
         <v>206</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="K28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="L28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1</v>
-      </c>
-      <c r="M28" s="5">
-        <v>1</v>
-      </c>
-      <c r="N28" s="5">
-        <v>1</v>
+      <c r="M28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>1</v>
+      </c>
+      <c r="R28" s="5">
+        <v>1</v>
+      </c>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>107</v>
       </c>
@@ -3045,44 +3199,48 @@
         <v>207</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="H29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="I29" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5">
-        <v>1</v>
-      </c>
-      <c r="N29" s="5">
-        <v>1</v>
+      <c r="M29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>1</v>
+      </c>
+      <c r="R29" s="5">
+        <v>1</v>
+      </c>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>109</v>
       </c>
@@ -3090,44 +3248,48 @@
         <v>208</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="H30" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="I30" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="L30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1</v>
-      </c>
-      <c r="M30" s="5">
-        <v>1</v>
-      </c>
-      <c r="N30" s="5">
-        <v>1</v>
+      <c r="M30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>1</v>
+      </c>
+      <c r="R30" s="5">
+        <v>1</v>
+      </c>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>79</v>
       </c>
@@ -3135,44 +3297,48 @@
         <v>90</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="H31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="I31" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="J31" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="K31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="L31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5">
-        <v>1</v>
-      </c>
-      <c r="N31" s="5">
-        <v>1</v>
+      <c r="M31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1</v>
+      </c>
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -3180,44 +3346,48 @@
         <v>91</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="H32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="I32" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="J32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="K32" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="L32" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>1</v>
-      </c>
-      <c r="M32" s="5">
-        <v>1</v>
-      </c>
-      <c r="N32" s="5">
-        <v>1</v>
+      <c r="M32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1</v>
+      </c>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>81</v>
       </c>
@@ -3225,44 +3395,48 @@
         <v>92</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="H33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="I33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="K33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="L33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1</v>
-      </c>
-      <c r="M33" s="5">
-        <v>1</v>
-      </c>
-      <c r="N33" s="5">
-        <v>1</v>
+      <c r="M33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1</v>
+      </c>
+      <c r="R33" s="5">
+        <v>1</v>
+      </c>
+      <c r="S33" s="18"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>106</v>
       </c>
@@ -3270,44 +3444,48 @@
         <v>102</v>
       </c>
       <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="H34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="I34" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="J34" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="K34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="L34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>1</v>
-      </c>
-      <c r="M34" s="5">
-        <v>1</v>
-      </c>
-      <c r="N34" s="5">
-        <v>1</v>
+      <c r="M34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>1</v>
+      </c>
+      <c r="R34" s="5">
+        <v>1</v>
+      </c>
+      <c r="S34" s="19"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
@@ -3315,44 +3493,48 @@
         <v>104</v>
       </c>
       <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="H35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="I35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="J35" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="K35" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="L35" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <v>1</v>
-      </c>
-      <c r="M35" s="5">
-        <v>1</v>
-      </c>
-      <c r="N35" s="5">
-        <v>1</v>
+      <c r="M35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5">
+        <v>1</v>
+      </c>
+      <c r="S35" s="19"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>64</v>
       </c>
@@ -3360,46 +3542,50 @@
         <v>105</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="H36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="J36" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="K36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="L36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
-        <v>1</v>
-      </c>
-      <c r="M36" s="5">
-        <v>1</v>
-      </c>
-      <c r="N36" s="5">
-        <v>1</v>
+      <c r="M36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="O36" s="5">
         <v>1</v>
       </c>
+      <c r="P36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>1</v>
+      </c>
+      <c r="R36" s="5">
+        <v>1</v>
+      </c>
+      <c r="S36" s="19"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O36">
-    <sortCondition ref="D2:D36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R36">
+    <sortCondition ref="G2:G36"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/eve/circoviridae/ecv-circo-refseqs-side-data.xlsx
+++ b/tabular/eve/circoviridae/ecv-circo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/circoviridae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139CCFAA-B542-1246-9E15-FBCEA39714CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F560A774-366F-224C-A954-A58F4A2A3463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14820" yWindow="2700" windowWidth="29640" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="119">
   <si>
     <t>Circovirus</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Circoviridae</t>
   </si>
   <si>
-    <t>ecv-circo.1-passeriformes-con</t>
-  </si>
-  <si>
-    <t>ecv-circo.2-psittaciformes-con</t>
-  </si>
-  <si>
     <t>REF_ECV_Varroa</t>
   </si>
   <si>
@@ -223,24 +217,12 @@
     <t>ecv-circo.150-microcaecilia</t>
   </si>
   <si>
-    <t>ecv-circo.105-serpentes-con</t>
-  </si>
-  <si>
     <t>ecv-circo.104-salvator</t>
   </si>
   <si>
     <t>Salvator</t>
   </si>
   <si>
-    <t>ecv-circo.51-carnivore-con</t>
-  </si>
-  <si>
-    <t>ecv-circo.52-chrysochloris-con</t>
-  </si>
-  <si>
-    <t>ecv-circo.4-tinamou-con</t>
-  </si>
-  <si>
     <t>ecv-circo.5-gallirallus</t>
   </si>
   <si>
@@ -256,15 +238,9 @@
     <t>ecv-circo.54-sanguinus</t>
   </si>
   <si>
-    <t>ecv-circo.57-galeopterus-con</t>
-  </si>
-  <si>
     <t>ecv-circo.58-crocidura</t>
   </si>
   <si>
-    <t>ecv-circo.59-choloepus-con</t>
-  </si>
-  <si>
     <t>ecv-circo.60-microgale</t>
   </si>
   <si>
@@ -277,18 +253,12 @@
     <t>ecv-circo.92-monodelphis</t>
   </si>
   <si>
-    <t>ecv-circo.200-actinopterygii-con</t>
-  </si>
-  <si>
     <t>ecv-circo.240-anguilla</t>
   </si>
   <si>
     <t>ecv-circo.151-anura</t>
   </si>
   <si>
-    <t>ecv-circo.56-manis-con</t>
-  </si>
-  <si>
     <t>ecv-circo.55-heterocephalus</t>
   </si>
   <si>
@@ -301,9 +271,6 @@
     <t>ecv-circo.62-Heterocephalus</t>
   </si>
   <si>
-    <t>ecv-circo.206-sinocyclocheilus-con</t>
-  </si>
-  <si>
     <t>Sinocyclocheilus</t>
   </si>
   <si>
@@ -337,21 +304,6 @@
     <t>Choloepus_hoffmanni</t>
   </si>
   <si>
-    <t>ecv-circo.151-anura-con</t>
-  </si>
-  <si>
-    <t>ecv-circo.150-microcaecilia-con</t>
-  </si>
-  <si>
-    <t>ecv-circo.54-sanguinus-con</t>
-  </si>
-  <si>
-    <t>ecv-circo.64-rhizomys-con</t>
-  </si>
-  <si>
-    <t>ecv-circo.102-testudines-con</t>
-  </si>
-  <si>
     <t>ecv-circo.207-parambassis-ranga</t>
   </si>
   <si>
@@ -401,6 +353,39 @@
   </si>
   <si>
     <t>nearest_downstream_orf</t>
+  </si>
+  <si>
+    <t>ecv-circo.1-passeriformes</t>
+  </si>
+  <si>
+    <t>ecv-circo.2-psittaciformes</t>
+  </si>
+  <si>
+    <t>ecv-circo.4-tinamou</t>
+  </si>
+  <si>
+    <t>ecv-circo.51-carnivore</t>
+  </si>
+  <si>
+    <t>ecv-circo.52-chrysochloris</t>
+  </si>
+  <si>
+    <t>ecv-circo.56-manis</t>
+  </si>
+  <si>
+    <t>ecv-circo.57-galeopterus</t>
+  </si>
+  <si>
+    <t>ecv-circo.59-choloepus</t>
+  </si>
+  <si>
+    <t>ecv-circo.200-actinopterygii</t>
+  </si>
+  <si>
+    <t>ecv-circo.206-sinocyclocheilus</t>
+  </si>
+  <si>
+    <t>ecv-circo.105-serpentes</t>
   </si>
 </sst>
 </file>
@@ -1782,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1812,31 +1797,31 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -1854,21 +1839,21 @@
         <v>4</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B2" s="20">
         <v>150</v>
@@ -1878,22 +1863,22 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>7</v>
@@ -1917,7 +1902,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B3" s="20">
         <v>151</v>
@@ -1927,22 +1912,22 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>7</v>
@@ -1966,7 +1951,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B4" s="16">
         <v>1</v>
@@ -1976,22 +1961,22 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>7</v>
@@ -2015,7 +2000,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B5" s="16">
         <v>2</v>
@@ -2025,22 +2010,22 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>7</v>
@@ -2064,7 +2049,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B6" s="16">
         <v>4</v>
@@ -2074,22 +2059,22 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>7</v>
@@ -2113,7 +2098,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B7" s="16">
         <v>5</v>
@@ -2123,22 +2108,22 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>7</v>
@@ -2162,7 +2147,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B8" s="16">
         <v>7</v>
@@ -2172,22 +2157,22 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>7</v>
@@ -2211,7 +2196,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="16">
         <v>8</v>
@@ -2221,22 +2206,22 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>7</v>
@@ -2260,7 +2245,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B10" s="17">
         <v>51</v>
@@ -2270,22 +2255,22 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>7</v>
@@ -2309,7 +2294,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B11" s="17">
         <v>52</v>
@@ -2319,22 +2304,22 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>7</v>
@@ -2358,7 +2343,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B12" s="17">
         <v>54</v>
@@ -2368,22 +2353,22 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>7</v>
@@ -2407,7 +2392,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B13" s="17">
         <v>56</v>
@@ -2417,22 +2402,22 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>7</v>
@@ -2456,7 +2441,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B14" s="17">
         <v>57</v>
@@ -2466,22 +2451,22 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="L14" s="15" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>7</v>
@@ -2505,7 +2490,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B15" s="17">
         <v>58</v>
@@ -2515,22 +2500,22 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>7</v>
@@ -2554,7 +2539,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B16" s="17">
         <v>59</v>
@@ -2564,22 +2549,22 @@
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>7</v>
@@ -2603,7 +2588,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B17" s="17">
         <v>62</v>
@@ -2613,22 +2598,22 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>7</v>
@@ -2652,7 +2637,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B18" s="17">
         <v>64</v>
@@ -2662,22 +2647,22 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>7</v>
@@ -2701,7 +2686,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B19" s="17">
         <v>53</v>
@@ -2711,22 +2696,22 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>7</v>
@@ -2750,7 +2735,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B20" s="17">
         <v>55</v>
@@ -2760,22 +2745,22 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>7</v>
@@ -2799,7 +2784,7 @@
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B21" s="17">
         <v>60</v>
@@ -2809,22 +2794,22 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>7</v>
@@ -2848,7 +2833,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B22" s="17">
         <v>61</v>
@@ -2858,22 +2843,22 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>7</v>
@@ -2897,7 +2882,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B23" s="17">
         <v>63</v>
@@ -2907,22 +2892,22 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>7</v>
@@ -2946,7 +2931,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B24" s="17">
         <v>65</v>
@@ -2956,22 +2941,22 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>7</v>
@@ -2995,7 +2980,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B25" s="17">
         <v>66</v>
@@ -3005,22 +2990,22 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>7</v>
@@ -3044,7 +3029,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B26" s="21">
         <v>200</v>
@@ -3054,22 +3039,22 @@
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>7</v>
@@ -3090,12 +3075,12 @@
         <v>1</v>
       </c>
       <c r="S26" s="24" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B27" s="21">
         <v>240</v>
@@ -3105,22 +3090,22 @@
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>7</v>
@@ -3144,7 +3129,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B28" s="21">
         <v>206</v>
@@ -3154,22 +3139,22 @@
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>7</v>
@@ -3193,7 +3178,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B29" s="21">
         <v>207</v>
@@ -3203,22 +3188,22 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>7</v>
@@ -3242,7 +3227,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B30" s="21">
         <v>208</v>
@@ -3252,22 +3237,22 @@
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>7</v>
@@ -3291,7 +3276,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B31" s="18">
         <v>90</v>
@@ -3301,22 +3286,22 @@
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>7</v>
@@ -3340,7 +3325,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B32" s="18">
         <v>91</v>
@@ -3350,22 +3335,22 @@
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>7</v>
@@ -3389,7 +3374,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B33" s="18">
         <v>92</v>
@@ -3399,22 +3384,22 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>7</v>
@@ -3438,7 +3423,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B34" s="19">
         <v>102</v>
@@ -3448,22 +3433,22 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>7</v>
@@ -3487,7 +3472,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" s="19">
         <v>104</v>
@@ -3497,22 +3482,22 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>7</v>
@@ -3536,7 +3521,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B36" s="19">
         <v>105</v>
@@ -3546,22 +3531,22 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>7</v>
@@ -3613,22 +3598,22 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6">
         <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -3648,7 +3633,7 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>8</v>
@@ -3660,13 +3645,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>7</v>
@@ -3687,7 +3672,7 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>9</v>
@@ -3699,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>
@@ -3722,7 +3707,7 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6">
         <v>10</v>
@@ -3734,13 +3719,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>7</v>
@@ -3760,7 +3745,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>6</v>
@@ -3772,13 +3757,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>7</v>

--- a/tabular/eve/circoviridae/ecv-circo-refseqs-side-data.xlsx
+++ b/tabular/eve/circoviridae/ecv-circo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/circoviridae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F560A774-366F-224C-A954-A58F4A2A3463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E6AD14-F9F4-B849-9778-BE1926AA485F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14820" yWindow="2700" windowWidth="29640" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1767,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection sqref="A1:S36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
